--- a/src/test/java/TestData/DemoNopRegister.xlsx
+++ b/src/test/java/TestData/DemoNopRegister.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>first name</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>abcd street</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>james12345@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -397,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,6 +419,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
@@ -424,12 +433,17 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -438,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
